--- a/data/Blots/IntegratedDensityValues.xlsx
+++ b/data/Blots/IntegratedDensityValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Blots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Writing/Paper/Data availability/Blots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{371BD6E5-87C9-F343-9FD6-8352DC867066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA75B14C-54E2-CD47-A3A7-4CC9B29C6234}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{371BD6E5-87C9-F343-9FD6-8352DC867066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38373DB7-077D-6247-9EB6-E798F2D28597}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="680" windowWidth="25960" windowHeight="17320" xr2:uid="{8E3BFF54-A4D6-D54D-B330-3F5950D77BAD}"/>
+    <workbookView xWindow="160" yWindow="680" windowWidth="25960" windowHeight="17320" activeTab="11" xr2:uid="{8E3BFF54-A4D6-D54D-B330-3F5950D77BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fp1 SN - Western" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="20">
   <si>
     <t>WT</t>
   </si>
@@ -61,34 +61,10 @@
     <t>ASO-Fp</t>
   </si>
   <si>
-    <t>bkgrnd bC</t>
-  </si>
-  <si>
-    <t>bkgrnd C</t>
-  </si>
-  <si>
-    <t>bkgrnd W</t>
-  </si>
-  <si>
-    <t>p-aSyn</t>
-  </si>
-  <si>
     <t>Integrated density</t>
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>p-aSyn minus background</t>
-  </si>
-  <si>
-    <t>bkgrnd benCom</t>
-  </si>
-  <si>
-    <t>bkgrnd Cntrl</t>
-  </si>
-  <si>
-    <t>bkgrnd WT</t>
   </si>
   <si>
     <t>p-aSyn final</t>
@@ -114,12 +90,30 @@
   <si>
     <t>Integrated Density</t>
   </si>
+  <si>
+    <t>p-aSyn Integrated density</t>
+  </si>
+  <si>
+    <t>B-actin Integrated density</t>
+  </si>
+  <si>
+    <t>p-aSyn/B-actin Relative integrated density</t>
+  </si>
+  <si>
+    <t>p-aSyn Area</t>
+  </si>
+  <si>
+    <t>B-actin Area</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +158,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,6 +194,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,10 +210,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,42 +529,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C18CB68-19F9-2643-A104-BCDA8E843CE7}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>40073</v>
+      </c>
+      <c r="D2">
+        <v>163183</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.24557092344178008</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -575,17 +582,17 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>40073</v>
+        <v>35745</v>
       </c>
       <c r="D3">
-        <v>163183</v>
+        <v>204323</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
-        <v>0.24557092344178008</v>
+        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
+        <v>0.17494359421112651</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,35 +600,35 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>35745</v>
+        <v>34040</v>
       </c>
       <c r="D4">
-        <v>204323</v>
+        <v>171808</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4/D4</f>
-        <v>0.17494359421112651</v>
+        <f t="shared" si="0"/>
+        <v>0.19812814304339729</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>34040</v>
+        <v>116205</v>
       </c>
       <c r="D5">
-        <v>171808</v>
+        <v>119625</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.19812814304339729</v>
+        <v>0.97141065830721007</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,17 +636,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>116205</v>
+        <v>129244</v>
       </c>
       <c r="D6">
-        <v>119625</v>
+        <v>122229</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.97141065830721007</v>
+        <v>1.0573922718831046</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,17 +654,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>129244</v>
+        <v>120511</v>
       </c>
       <c r="D7">
-        <v>122229</v>
+        <v>214191</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.0573922718831046</v>
+        <v>0.5626333506076352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,17 +672,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>120511</v>
+        <v>155618</v>
       </c>
       <c r="D8">
-        <v>214191</v>
+        <v>181446</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.5626333506076352</v>
+        <v>0.85765461900510342</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -683,35 +690,35 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>155618</v>
+        <v>181802</v>
       </c>
       <c r="D9">
-        <v>181446</v>
+        <v>135867</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.85765461900510342</v>
+        <v>1.338087983101121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>181802</v>
+        <v>140215</v>
       </c>
       <c r="D10">
-        <v>135867</v>
+        <v>185569</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1.338087983101121</v>
+        <v>0.75559495389854991</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,17 +726,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>140215</v>
+        <v>127902</v>
       </c>
       <c r="D11">
-        <v>185569</v>
+        <v>191375</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.75559495389854991</v>
+        <v>0.6683318092749837</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,17 +744,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>127902</v>
+        <v>173976</v>
       </c>
       <c r="D12">
-        <v>191375</v>
+        <v>200053</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.6683318092749837</v>
+        <v>0.86964954287113916</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,17 +762,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>173976</v>
+        <v>164862</v>
       </c>
       <c r="D13">
-        <v>200053</v>
+        <v>183897</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.86964954287113916</v>
+        <v>0.89649097048891502</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,17 +780,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>164862</v>
+        <v>126010</v>
       </c>
       <c r="D14">
-        <v>183897</v>
+        <v>75701</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.89649097048891502</v>
+        <v>1.6645751046881812</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,33 +798,15 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>126010</v>
+        <v>129149</v>
       </c>
       <c r="D15">
-        <v>75701</v>
+        <v>130007</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.6645751046881812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>129149</v>
-      </c>
-      <c r="D16">
-        <v>130007</v>
-      </c>
-      <c r="E16">
         <f t="shared" si="0"/>
         <v>0.99340035536548033</v>
       </c>
@@ -829,10 +818,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D912AF-4DCC-E34F-A347-6FB7BA04D858}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,51 +829,48 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -901,7 +887,11 @@
         <v>1232</v>
       </c>
       <c r="E3">
-        <f>(C3/D3)-E20</f>
+        <f t="shared" ref="E3:E5" si="0">54686/882</f>
+        <v>62.002267573696145</v>
+      </c>
+      <c r="F3">
+        <f>(C3/D3)-E3</f>
         <v>24.324842815914252</v>
       </c>
       <c r="G3">
@@ -915,7 +905,7 @@
         <v>110.84937888198758</v>
       </c>
       <c r="J3">
-        <f>E3/I3</f>
+        <f>F3/I3</f>
         <v>0.21944049719765193</v>
       </c>
     </row>
@@ -933,7 +923,11 @@
         <v>1232</v>
       </c>
       <c r="E4">
-        <f>(C4/D4)-E20</f>
+        <f t="shared" si="0"/>
+        <v>62.002267573696145</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F16" si="1">(C4/D4)-E4</f>
         <v>16.410070088641518</v>
       </c>
       <c r="G4">
@@ -943,11 +937,11 @@
         <v>644</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="0">G4/H4</f>
+        <f t="shared" ref="I4:I16" si="2">G4/H4</f>
         <v>141.49068322981367</v>
       </c>
       <c r="J4">
-        <f>E4/I4</f>
+        <f>F4/I4</f>
         <v>0.11597986322525393</v>
       </c>
     </row>
@@ -965,7 +959,11 @@
         <v>1232</v>
       </c>
       <c r="E5">
-        <f>(C5/D5)-E20</f>
+        <f t="shared" si="0"/>
+        <v>62.002267573696145</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>16.328089569160994</v>
       </c>
       <c r="G5">
@@ -975,11 +973,11 @@
         <v>644</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>144.57919254658384</v>
       </c>
       <c r="J5">
-        <f>E5/I5</f>
+        <f>F5/I5</f>
         <v>0.11293526600586067</v>
       </c>
     </row>
@@ -997,8 +995,12 @@
         <v>1232</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E7" si="1">C6/D6</f>
-        <v>123.03571428571429</v>
+        <f t="shared" ref="E6:E10" si="3">127112/1232</f>
+        <v>103.17532467532467</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>19.860389610389618</v>
       </c>
       <c r="G6">
         <v>102851</v>
@@ -1007,12 +1009,12 @@
         <v>644</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159.70652173913044</v>
       </c>
       <c r="J6">
-        <f>E6/I6</f>
-        <v>0.77038628695880451</v>
+        <f>F6/I6</f>
+        <v>0.12435553284937349</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1029,7 +1031,11 @@
         <v>1232</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>103.17532467532467</v>
+      </c>
+      <c r="F7">
+        <f>(C7/D7)</f>
         <v>149.83116883116884</v>
       </c>
       <c r="G7">
@@ -1039,11 +1045,11 @@
         <v>644</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>166.9860248447205</v>
       </c>
       <c r="J7">
-        <f>E7/I7</f>
+        <f>F7/I7</f>
         <v>0.89726771429223562</v>
       </c>
     </row>
@@ -1061,8 +1067,12 @@
         <v>1232</v>
       </c>
       <c r="E8">
-        <f>(C8/D8)-E19</f>
-        <v>46.970779220779235</v>
+        <f t="shared" si="3"/>
+        <v>103.17532467532467</v>
+      </c>
+      <c r="F8">
+        <f>(C8/D8)</f>
+        <v>150.14610389610391</v>
       </c>
       <c r="G8">
         <v>98690</v>
@@ -1071,12 +1081,12 @@
         <v>644</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153.24534161490683</v>
       </c>
       <c r="J8">
-        <f>E8/I8</f>
-        <v>0.30650706067668282</v>
+        <f>F8/I8</f>
+        <v>0.97977597435495911</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1093,7 +1103,11 @@
         <v>1232</v>
       </c>
       <c r="E9">
-        <f>(C9/D9)-E19</f>
+        <f t="shared" si="3"/>
+        <v>103.17532467532467</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>91.306006493506487</v>
       </c>
       <c r="G9">
@@ -1103,11 +1117,11 @@
         <v>644</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171.30745341614906</v>
       </c>
       <c r="J9">
-        <f>E9/I9</f>
+        <f>F9/I9</f>
         <v>0.53299494372671075</v>
       </c>
     </row>
@@ -1125,7 +1139,11 @@
         <v>1232</v>
       </c>
       <c r="E10">
-        <f>(C10/D10)-E19</f>
+        <f t="shared" si="3"/>
+        <v>103.17532467532467</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>127.1258116883117</v>
       </c>
       <c r="G10">
@@ -1135,11 +1153,11 @@
         <v>644</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155.31677018633539</v>
       </c>
       <c r="J10">
-        <f>E10/I10</f>
+        <f>F10/I10</f>
         <v>0.81849378876342416</v>
       </c>
     </row>
@@ -1157,7 +1175,11 @@
         <v>1232</v>
       </c>
       <c r="E11">
-        <f>(C11/D11)-E18</f>
+        <f t="shared" ref="E11:E16" si="4">169948/1232</f>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>45.995129870129887</v>
       </c>
       <c r="G11">
@@ -1167,11 +1189,11 @@
         <v>644</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>141.87888198757764</v>
       </c>
       <c r="J11">
-        <f>E11/I11</f>
+        <f>F11/I11</f>
         <v>0.32418587760056522</v>
       </c>
     </row>
@@ -1189,7 +1211,11 @@
         <v>1232</v>
       </c>
       <c r="E12">
-        <f>(C12/D12)-E18</f>
+        <f t="shared" si="4"/>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>1.9959415584415581</v>
       </c>
       <c r="G12">
@@ -1199,11 +1225,11 @@
         <v>644</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>157.24534161490683</v>
       </c>
       <c r="J12">
-        <f>E12/I12</f>
+        <f>F12/I12</f>
         <v>1.2693168127864864E-2</v>
       </c>
     </row>
@@ -1221,7 +1247,11 @@
         <v>1232</v>
       </c>
       <c r="E13">
-        <f>(C13/D13)-E18</f>
+        <f t="shared" si="4"/>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>19.467532467532465</v>
       </c>
       <c r="G13">
@@ -1231,11 +1261,11 @@
         <v>644</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>175.93167701863354</v>
       </c>
       <c r="J13">
-        <f>E13/I13</f>
+        <f>F13/I13</f>
         <v>0.11065393564952257</v>
       </c>
     </row>
@@ -1253,7 +1283,11 @@
         <v>1232</v>
       </c>
       <c r="E14">
-        <f>(C14/D14)-E18</f>
+        <f t="shared" si="4"/>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>48.092532467532465</v>
       </c>
       <c r="G14">
@@ -1263,11 +1297,11 @@
         <v>644</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>129.77173913043478</v>
       </c>
       <c r="J14">
-        <f>E14/I14</f>
+        <f>F14/I14</f>
         <v>0.37059326467987158</v>
       </c>
     </row>
@@ -1285,7 +1319,11 @@
         <v>1232</v>
       </c>
       <c r="E15">
-        <f>(C15/D15)-E18</f>
+        <f t="shared" si="4"/>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>30.540584415584419</v>
       </c>
       <c r="G15">
@@ -1295,11 +1333,11 @@
         <v>644</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150.54658385093168</v>
       </c>
       <c r="J15">
-        <f>E15/I15</f>
+        <f>F15/I15</f>
         <v>0.20286467905392735</v>
       </c>
     </row>
@@ -1317,7 +1355,11 @@
         <v>1232</v>
       </c>
       <c r="E16">
-        <f>(C16/D16)-E18</f>
+        <f t="shared" si="4"/>
+        <v>137.94480519480518</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>66.633928571428584</v>
       </c>
       <c r="G16">
@@ -1327,39 +1369,12 @@
         <v>644</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>131.50931677018633</v>
       </c>
       <c r="J16">
-        <f>E16/I16</f>
+        <f>F16/I16</f>
         <v>0.50668599159306671</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <f>169948/1232</f>
-        <v>137.94480519480518</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <f>127112/1232</f>
-        <v>103.17532467532467</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <f>54686/882</f>
-        <v>62.002267573696145</v>
       </c>
     </row>
   </sheetData>
@@ -1379,13 +1394,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1634,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAA6BAF-6EBC-304D-8539-677C989AFAC7}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1642,13 +1657,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1873,506 +1888,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE9CE89-4830-6542-A5F5-CFCC7035A2D0}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1361</v>
+      </c>
+      <c r="D2">
+        <v>2146</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.6342031686859273</v>
+      </c>
+      <c r="F2">
+        <v>79831</v>
+      </c>
+      <c r="G2">
+        <v>1232</v>
+      </c>
+      <c r="H2">
+        <f>F2/G2</f>
+        <v>64.797889610389603</v>
+      </c>
+      <c r="I2">
+        <f>E2/H2</f>
+        <v>9.7874046901712686E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1361</v>
+        <v>12760</v>
       </c>
       <c r="D3">
         <v>2146</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
-        <v>0.6342031686859273</v>
+        <f t="shared" ref="E3:E14" si="0">C3/D3</f>
+        <v>5.9459459459459456</v>
+      </c>
+      <c r="F3">
+        <v>151349</v>
       </c>
       <c r="G3">
-        <v>79831</v>
+        <v>1232</v>
       </c>
       <c r="H3">
-        <v>1232</v>
+        <f t="shared" ref="H3:H15" si="1">F3/G3</f>
+        <v>122.84821428571429</v>
       </c>
       <c r="I3">
-        <f>G3/H3</f>
-        <v>64.797889610389603</v>
-      </c>
-      <c r="J3">
-        <f>E3/I3</f>
-        <v>9.7874046901712686E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E3/H3</f>
+        <v>4.8400751940253353E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>12760</v>
+        <v>6066</v>
       </c>
       <c r="D4">
         <v>2146</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4/D4</f>
-        <v>5.9459459459459456</v>
+        <f t="shared" si="0"/>
+        <v>2.8266542404473438</v>
+      </c>
+      <c r="F4">
+        <v>134004</v>
       </c>
       <c r="G4">
-        <v>151349</v>
+        <v>1232</v>
       </c>
       <c r="H4">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>108.76948051948052</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="1">G4/H4</f>
-        <v>122.84821428571429</v>
-      </c>
-      <c r="J4">
-        <f>E4/I4</f>
-        <v>4.8400751940253353E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E4/H4</f>
+        <v>2.5987567716121367E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6066</v>
+        <v>207558</v>
       </c>
       <c r="D5">
         <v>2146</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2.8266542404473438</v>
+        <f>C5/D5</f>
+        <v>96.718546132339242</v>
+      </c>
+      <c r="F5">
+        <v>161890</v>
       </c>
       <c r="G5">
-        <v>134004</v>
+        <v>1232</v>
       </c>
       <c r="H5">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>131.40422077922079</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>108.76948051948052</v>
-      </c>
-      <c r="J5">
-        <f>E5/I5</f>
-        <v>2.5987567716121367E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E5/H5</f>
+        <v>0.73603835218384051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>207558</v>
+        <v>90178</v>
       </c>
       <c r="D6">
         <v>2146</v>
       </c>
       <c r="E6">
-        <f>C6/D6</f>
-        <v>96.718546132339242</v>
+        <f t="shared" si="0"/>
+        <v>42.021435228331782</v>
+      </c>
+      <c r="F6">
+        <v>155767</v>
       </c>
       <c r="G6">
-        <v>161890</v>
+        <v>1232</v>
       </c>
       <c r="H6">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>126.43425324675324</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>131.40422077922079</v>
-      </c>
-      <c r="J6">
-        <f>E6/I6</f>
-        <v>0.73603835218384051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E6/H6</f>
+        <v>0.33235799753031614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>90178</v>
+        <v>109430</v>
       </c>
       <c r="D7">
         <v>2146</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>42.021435228331782</v>
+        <v>50.992544268406334</v>
+      </c>
+      <c r="F7">
+        <v>160417</v>
       </c>
       <c r="G7">
-        <v>155767</v>
+        <v>1232</v>
       </c>
       <c r="H7">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>130.20860389610391</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>126.43425324675324</v>
-      </c>
-      <c r="J7">
-        <f>E7/I7</f>
-        <v>0.33235799753031614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E7/H7</f>
+        <v>0.39162192622151393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>109430</v>
+        <v>143502</v>
       </c>
       <c r="D8">
         <v>2146</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>50.992544268406334</v>
+        <v>66.869524697110904</v>
+      </c>
+      <c r="F8">
+        <v>125688</v>
       </c>
       <c r="G8">
-        <v>160417</v>
+        <v>1232</v>
       </c>
       <c r="H8">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>102.01948051948052</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>130.20860389610391</v>
-      </c>
-      <c r="J8">
-        <f>E8/I8</f>
-        <v>0.39162192622151393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E8/H8</f>
+        <v>0.65545839242282977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>143502</v>
+        <v>195458</v>
       </c>
       <c r="D9">
         <v>2146</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>66.869524697110904</v>
+        <v>91.08014911463188</v>
+      </c>
+      <c r="F9">
+        <v>137892</v>
       </c>
       <c r="G9">
-        <v>125688</v>
+        <v>1232</v>
       </c>
       <c r="H9">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>111.92532467532467</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>102.01948051948052</v>
-      </c>
-      <c r="J9">
-        <f>E9/I9</f>
-        <v>0.65545839242282977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E9/H9</f>
+        <v>0.81375818545837664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>195458</v>
+        <v>228016</v>
       </c>
       <c r="D10">
         <v>2146</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>91.08014911463188</v>
+        <v>106.25163094128611</v>
+      </c>
+      <c r="F10">
+        <v>148430</v>
       </c>
       <c r="G10">
-        <v>137892</v>
+        <v>1232</v>
       </c>
       <c r="H10">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>120.4788961038961</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>111.92532467532467</v>
-      </c>
-      <c r="J10">
-        <f>E10/I10</f>
-        <v>0.81375818545837664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E10/H10</f>
+        <v>0.88191072774819435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>228016</v>
+        <v>234320</v>
       </c>
       <c r="D11">
         <v>2146</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>106.25163094128611</v>
+        <v>109.18918918918919</v>
+      </c>
+      <c r="F11">
+        <v>100940</v>
       </c>
       <c r="G11">
-        <v>148430</v>
+        <v>1232</v>
       </c>
       <c r="H11">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>81.931818181818187</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>120.4788961038961</v>
-      </c>
-      <c r="J11">
-        <f>E11/I11</f>
-        <v>0.88191072774819435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E11/H11</f>
+        <v>1.3326835851107695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>234320</v>
+        <v>238376</v>
       </c>
       <c r="D12">
         <v>2146</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>109.18918918918919</v>
+        <v>111.07921714818266</v>
+      </c>
+      <c r="F12">
+        <v>138887</v>
       </c>
       <c r="G12">
-        <v>100940</v>
+        <v>1232</v>
       </c>
       <c r="H12">
-        <v>1232</v>
+        <f t="shared" si="1"/>
+        <v>112.73295454545455</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>81.931818181818187</v>
-      </c>
-      <c r="J12">
-        <f>E12/I12</f>
-        <v>1.3326835851107695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E12/H12</f>
+        <v>0.98533048828588021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>238376</v>
+        <v>213097</v>
       </c>
       <c r="D13">
         <v>2146</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>111.07921714818266</v>
+        <v>99.299627213420322</v>
+      </c>
+      <c r="F13">
+        <v>183890</v>
       </c>
       <c r="G13">
-        <v>138887</v>
+        <v>1232</v>
       </c>
       <c r="H13">
-        <v>1232</v>
+        <f>F13/G13</f>
+        <v>149.26136363636363</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>112.73295454545455</v>
-      </c>
-      <c r="J13">
-        <f>E13/I13</f>
-        <v>0.98533048828588021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E13/H13</f>
+        <v>0.66527348266318909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>213097</v>
+        <v>157776</v>
       </c>
       <c r="D14">
         <v>2146</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>99.299627213420322</v>
+        <v>73.520969245107182</v>
+      </c>
+      <c r="F14">
+        <v>145704</v>
       </c>
       <c r="G14">
-        <v>183890</v>
+        <v>1232</v>
       </c>
       <c r="H14">
-        <v>1232</v>
-      </c>
-      <c r="I14">
-        <f>G14/H14</f>
-        <v>149.26136363636363</v>
-      </c>
-      <c r="J14">
-        <f>E14/I14</f>
-        <v>0.66527348266318909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>157776</v>
-      </c>
-      <c r="D15">
-        <v>2146</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>73.520969245107182</v>
-      </c>
-      <c r="G15">
-        <v>145704</v>
-      </c>
-      <c r="H15">
-        <v>1232</v>
-      </c>
-      <c r="I15">
         <f t="shared" si="1"/>
         <v>118.26623376623377</v>
       </c>
-      <c r="J15">
-        <f>E15/I15</f>
+      <c r="I14">
+        <f>E14/H14</f>
         <v>0.62165646866230195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C15">
         <v>163432</v>
       </c>
-      <c r="D16">
+      <c r="D15">
         <v>4081</v>
       </c>
-      <c r="E16">
-        <f>C16/D16</f>
+      <c r="E15">
+        <f>C15/D15</f>
         <v>40.047047292330312</v>
       </c>
-      <c r="G16">
+      <c r="F15">
         <v>107229</v>
       </c>
-      <c r="H16">
+      <c r="G15">
         <v>1232</v>
       </c>
-      <c r="I16">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>87.036525974025977</v>
       </c>
-      <c r="J16">
-        <f>E16/I16</f>
+      <c r="I15">
+        <f>E15/H15</f>
         <v>0.46011771315736361</v>
       </c>
     </row>
@@ -2383,42 +2380,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF13C9B8-5888-D642-BA16-6EDA701C4B28}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>55112</v>
+      </c>
+      <c r="D2">
+        <v>154757</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.35611959394405424</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2426,17 +2428,17 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>55112</v>
+        <v>46399</v>
       </c>
       <c r="D3">
-        <v>154757</v>
+        <v>180905</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
-        <v>0.35611959394405424</v>
+        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
+        <v>0.25648268428180537</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2444,35 +2446,35 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>46399</v>
+        <v>51989</v>
       </c>
       <c r="D4">
-        <v>180905</v>
+        <v>217546</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4/D4</f>
-        <v>0.25648268428180537</v>
+        <f t="shared" si="0"/>
+        <v>0.2389793423000193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>51989</v>
+        <v>124399</v>
       </c>
       <c r="D5">
-        <v>217546</v>
+        <v>195729</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.2389793423000193</v>
+        <v>0.63556754492180512</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2480,17 +2482,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>124399</v>
+        <v>127526</v>
       </c>
       <c r="D6">
-        <v>195729</v>
+        <v>173112</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.63556754492180512</v>
+        <v>0.73666759092379497</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,17 +2500,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>127526</v>
+        <v>154603</v>
       </c>
       <c r="D7">
-        <v>173112</v>
+        <v>177315</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.73666759092379497</v>
+        <v>0.87191156980514906</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,17 +2518,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>154603</v>
+        <v>198226</v>
       </c>
       <c r="D8">
-        <v>177315</v>
+        <v>156099</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.87191156980514906</v>
+        <v>1.269873605852696</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2534,35 +2536,35 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>198226</v>
+        <v>144204</v>
       </c>
       <c r="D9">
-        <v>156099</v>
+        <v>164599</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1.269873605852696</v>
+        <v>0.87609280736821005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>144204</v>
+        <v>153562</v>
       </c>
       <c r="D10">
-        <v>164599</v>
+        <v>121883</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.87609280736821005</v>
+        <v>1.2599131954415299</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,17 +2572,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>153562</v>
+        <v>147536</v>
       </c>
       <c r="D11">
-        <v>121883</v>
+        <v>141142</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.2599131954415299</v>
+        <v>1.0453018945459183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,17 +2590,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>147536</v>
+        <v>164139</v>
       </c>
       <c r="D12">
-        <v>141142</v>
+        <v>160678</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.0453018945459183</v>
+        <v>1.0215399743586553</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2606,17 +2608,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>164139</v>
+        <v>192917</v>
       </c>
       <c r="D13">
-        <v>160678</v>
+        <v>225237</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1.0215399743586553</v>
+        <v>0.85650670182962829</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2624,17 +2626,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>192917</v>
+        <v>149964</v>
       </c>
       <c r="D14">
-        <v>225237</v>
+        <v>120235</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.85650670182962829</v>
+        <v>1.2472574541522852</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,33 +2644,15 @@
         <v>3</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>149964</v>
+        <v>143749</v>
       </c>
       <c r="D15">
-        <v>120235</v>
+        <v>80160</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.2472574541522852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>143749</v>
-      </c>
-      <c r="D16">
-        <v>80160</v>
-      </c>
-      <c r="E16">
         <f t="shared" si="0"/>
         <v>1.7932759481037923</v>
       </c>
@@ -2680,506 +2664,488 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1090D94A-E26B-4140-A629-FCF177F4E576}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>52858</v>
+      </c>
+      <c r="D2">
+        <v>1800</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>29.365555555555556</v>
+      </c>
+      <c r="F2">
+        <v>153789</v>
+      </c>
+      <c r="G2">
+        <v>1200</v>
+      </c>
+      <c r="H2">
+        <f>F2/G2</f>
+        <v>128.1575</v>
+      </c>
+      <c r="I2">
+        <f>E2/H2</f>
+        <v>0.22913645752730474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>52858</v>
+        <v>50784</v>
       </c>
       <c r="D3">
         <v>1800</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
-        <v>29.365555555555556</v>
+        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
+        <v>28.213333333333335</v>
+      </c>
+      <c r="F3">
+        <v>183120</v>
       </c>
       <c r="G3">
-        <v>153789</v>
+        <v>1200</v>
       </c>
       <c r="H3">
-        <v>1200</v>
+        <f t="shared" ref="H3:H15" si="1">F3/G3</f>
+        <v>152.6</v>
       </c>
       <c r="I3">
-        <f>G3/H3</f>
-        <v>128.1575</v>
-      </c>
-      <c r="J3">
-        <f>E3/I3</f>
-        <v>0.22913645752730474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E3/H3</f>
+        <v>0.18488422892092618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>50784</v>
+        <v>62426</v>
       </c>
       <c r="D4">
         <v>1800</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">C4/D4</f>
-        <v>28.213333333333335</v>
+        <f t="shared" si="0"/>
+        <v>34.681111111111115</v>
+      </c>
+      <c r="F4">
+        <v>195077</v>
       </c>
       <c r="G4">
-        <v>183120</v>
+        <v>1200</v>
       </c>
       <c r="H4">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>162.56416666666667</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I16" si="1">G4/H4</f>
-        <v>152.6</v>
-      </c>
-      <c r="J4">
-        <f>E4/I4</f>
-        <v>0.18488422892092618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E4/H4</f>
+        <v>0.21333798107072252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>62426</v>
+        <v>211818</v>
       </c>
       <c r="D5">
         <v>1800</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>34.681111111111115</v>
+        <v>117.67666666666666</v>
+      </c>
+      <c r="F5">
+        <v>181801</v>
       </c>
       <c r="G5">
-        <v>195077</v>
+        <v>1200</v>
       </c>
       <c r="H5">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>151.50083333333333</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>162.56416666666667</v>
-      </c>
-      <c r="J5">
-        <f>E5/I5</f>
-        <v>0.21333798107072252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E5/H5</f>
+        <v>0.77673940187347701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>211818</v>
+        <v>258340</v>
       </c>
       <c r="D6">
         <v>1800</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>117.67666666666666</v>
+        <v>143.52222222222221</v>
+      </c>
+      <c r="F6">
+        <v>169471</v>
       </c>
       <c r="G6">
-        <v>181801</v>
+        <v>1200</v>
       </c>
       <c r="H6">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>141.22583333333333</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>151.50083333333333</v>
-      </c>
-      <c r="J6">
-        <f>E6/I6</f>
-        <v>0.77673940187347701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E6/H6</f>
+        <v>1.0162604024680721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>258340</v>
+        <v>201743</v>
       </c>
       <c r="D7">
         <v>1800</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>143.52222222222221</v>
+        <v>112.07944444444445</v>
+      </c>
+      <c r="F7">
+        <v>200798</v>
       </c>
       <c r="G7">
-        <v>169471</v>
+        <v>1200</v>
       </c>
       <c r="H7">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>167.33166666666668</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>141.22583333333333</v>
-      </c>
-      <c r="J7">
-        <f>E7/I7</f>
-        <v>1.0162604024680721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E7/H7</f>
+        <v>0.66980414811568501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>201743</v>
+        <v>204618</v>
       </c>
       <c r="D8">
         <v>1800</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>112.07944444444445</v>
+        <v>113.67666666666666</v>
+      </c>
+      <c r="F8">
+        <v>173741</v>
       </c>
       <c r="G8">
-        <v>200798</v>
+        <v>1200</v>
       </c>
       <c r="H8">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>144.78416666666666</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>167.33166666666668</v>
-      </c>
-      <c r="J8">
-        <f>E8/I8</f>
-        <v>0.66980414811568501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E8/H8</f>
+        <v>0.78514570538905615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>204618</v>
+        <v>280891</v>
       </c>
       <c r="D9">
         <v>1800</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>113.67666666666666</v>
+        <v>156.05055555555555</v>
+      </c>
+      <c r="F9">
+        <v>182400</v>
       </c>
       <c r="G9">
-        <v>173741</v>
+        <v>1200</v>
       </c>
       <c r="H9">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>152</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>144.78416666666666</v>
-      </c>
-      <c r="J9">
-        <f>E9/I9</f>
-        <v>0.78514570538905615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E9/H9</f>
+        <v>1.0266483918128655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>280891</v>
+        <v>253638</v>
       </c>
       <c r="D10">
         <v>1800</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>156.05055555555555</v>
+        <v>140.91</v>
+      </c>
+      <c r="F10">
+        <v>167013</v>
       </c>
       <c r="G10">
-        <v>182400</v>
+        <v>1200</v>
       </c>
       <c r="H10">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>139.17750000000001</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="J10">
-        <f>E10/I10</f>
-        <v>1.0266483918128655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E10/H10</f>
+        <v>1.0124481327800829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>253638</v>
+        <v>252665</v>
       </c>
       <c r="D11">
         <v>1800</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>140.91</v>
+        <v>140.36944444444444</v>
+      </c>
+      <c r="F11">
+        <v>164708</v>
       </c>
       <c r="G11">
-        <v>167013</v>
+        <v>1200</v>
       </c>
       <c r="H11">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>137.25666666666666</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>139.17750000000001</v>
-      </c>
-      <c r="J11">
-        <f>E11/I11</f>
-        <v>1.0124481327800829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E11/H11</f>
+        <v>1.0226785179428646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>252665</v>
+        <v>192634</v>
       </c>
       <c r="D12">
         <v>1800</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>140.36944444444444</v>
+        <v>107.0188888888889</v>
+      </c>
+      <c r="F12">
+        <v>183318</v>
       </c>
       <c r="G12">
-        <v>164708</v>
+        <v>1200</v>
       </c>
       <c r="H12">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>152.76499999999999</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>137.25666666666666</v>
-      </c>
-      <c r="J12">
-        <f>E12/I12</f>
-        <v>1.0226785179428646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E12/H12</f>
+        <v>0.70054586383588457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>192634</v>
+        <v>189122</v>
       </c>
       <c r="D13">
         <v>1800</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>107.0188888888889</v>
+        <v>105.06777777777778</v>
+      </c>
+      <c r="F13">
+        <v>176599</v>
       </c>
       <c r="G13">
-        <v>183318</v>
+        <v>1200</v>
       </c>
       <c r="H13">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>147.16583333333332</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>152.76499999999999</v>
-      </c>
-      <c r="J13">
-        <f>E13/I13</f>
-        <v>0.70054586383588457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f>E13/H13</f>
+        <v>0.71394137754649423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>189122</v>
+        <v>151274</v>
       </c>
       <c r="D14">
         <v>1800</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>105.06777777777778</v>
+        <v>84.041111111111107</v>
+      </c>
+      <c r="F14">
+        <v>155409</v>
       </c>
       <c r="G14">
-        <v>176599</v>
+        <v>1200</v>
       </c>
       <c r="H14">
-        <v>1200</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>147.16583333333332</v>
-      </c>
-      <c r="J14">
-        <f>E14/I14</f>
-        <v>0.71394137754649423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>151274</v>
-      </c>
-      <c r="D15">
-        <v>1800</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>84.041111111111107</v>
-      </c>
-      <c r="G15">
-        <v>155409</v>
-      </c>
-      <c r="H15">
-        <v>1200</v>
-      </c>
-      <c r="I15">
         <f t="shared" si="1"/>
         <v>129.50749999999999</v>
       </c>
-      <c r="J15">
-        <f>E15/I15</f>
+      <c r="I14">
+        <f>E14/H14</f>
         <v>0.6489285262329294</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C15">
         <v>173218</v>
       </c>
-      <c r="D16">
+      <c r="D15">
         <v>2556</v>
       </c>
-      <c r="E16">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>67.769170579029733</v>
       </c>
-      <c r="G16">
+      <c r="F15">
         <v>157424</v>
       </c>
-      <c r="H16">
+      <c r="G15">
         <v>1200</v>
       </c>
-      <c r="I16">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>131.18666666666667</v>
       </c>
-      <c r="J16">
-        <f>E16/I16</f>
+      <c r="I15">
+        <f>E15/H15</f>
         <v>0.51658581089818378</v>
       </c>
     </row>
@@ -3200,13 +3166,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3446,13 +3412,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3706,13 +3672,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3963,13 +3929,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,62 +4179,80 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBB4F1-DE4D-1048-9124-DEA3186644C1}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>158876</v>
+      </c>
+      <c r="D2">
+        <v>1216</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E4" si="0">104541/1080</f>
+        <v>96.797222222222217</v>
+      </c>
+      <c r="F2" s="6">
+        <f>(C2/D2)-E2</f>
+        <v>33.857383040935673</v>
+      </c>
+      <c r="G2">
+        <v>36728</v>
+      </c>
+      <c r="H2">
+        <v>795</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I15" si="1">G2/H2</f>
+        <v>46.198742138364778</v>
+      </c>
+      <c r="J2">
+        <f>F2/I2</f>
+        <v>0.73286374203724303</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4276,31 +4260,35 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>158876</v>
+        <v>146583</v>
       </c>
       <c r="D3">
         <v>1216</v>
       </c>
       <c r="E3">
-        <f>(C3/D3)-E20</f>
-        <v>33.857383040935673</v>
+        <f t="shared" si="0"/>
+        <v>96.797222222222217</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F15" si="2">(C3/D3)-E3</f>
+        <v>23.748008040935673</v>
       </c>
       <c r="G3">
-        <v>36728</v>
+        <v>54880</v>
       </c>
       <c r="H3">
         <v>795</v>
       </c>
       <c r="I3">
-        <f>G3/H3</f>
-        <v>46.198742138364778</v>
+        <f t="shared" si="1"/>
+        <v>69.031446540880509</v>
       </c>
       <c r="J3">
-        <f>E3/I3</f>
-        <v>0.73286374203724303</v>
+        <f>F3/I3</f>
+        <v>0.34401724476209655</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4308,63 +4296,71 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>146583</v>
+        <v>125012</v>
       </c>
       <c r="D4">
         <v>1216</v>
       </c>
       <c r="E4">
-        <f>(C4/D4)-E20</f>
-        <v>23.748008040935673</v>
+        <f t="shared" si="0"/>
+        <v>96.797222222222217</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>6.008698830409358</v>
       </c>
       <c r="G4">
-        <v>54880</v>
+        <v>54734</v>
       </c>
       <c r="H4">
         <v>795</v>
       </c>
       <c r="I4">
-        <f>G4/H4</f>
-        <v>69.031446540880509</v>
+        <f t="shared" si="1"/>
+        <v>68.847798742138366</v>
       </c>
       <c r="J4">
-        <f>E4/I4</f>
-        <v>0.34401724476209655</v>
+        <f>F4/I4</f>
+        <v>8.727510450863156E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>125012</v>
+        <v>186294</v>
       </c>
       <c r="D5">
         <v>1216</v>
       </c>
       <c r="E5">
-        <f>(C5/D5)-E20</f>
-        <v>6.008698830409358</v>
+        <f t="shared" ref="E5:E9" si="3">130876/1080</f>
+        <v>121.18148148148148</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>32.020821150097476</v>
       </c>
       <c r="G5">
-        <v>54734</v>
+        <v>52822</v>
       </c>
       <c r="H5">
         <v>795</v>
       </c>
       <c r="I5">
-        <f>G5/H5</f>
-        <v>68.847798742138366</v>
+        <f t="shared" si="1"/>
+        <v>66.442767295597491</v>
       </c>
       <c r="J5">
-        <f>E5/I5</f>
-        <v>8.727510450863156E-2</v>
+        <f>F5/I5</f>
+        <v>0.48193087755722031</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4372,31 +4368,35 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>186294</v>
+        <v>212819</v>
       </c>
       <c r="D6">
         <v>1216</v>
       </c>
       <c r="E6">
-        <f>(C6/D6)-E19</f>
-        <v>32.020821150097476</v>
+        <f t="shared" si="3"/>
+        <v>121.18148148148148</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>53.834143518518516</v>
       </c>
       <c r="G6">
-        <v>52822</v>
+        <v>64493</v>
       </c>
       <c r="H6">
         <v>795</v>
       </c>
       <c r="I6">
-        <f>G6/H6</f>
-        <v>66.442767295597491</v>
+        <f t="shared" si="1"/>
+        <v>81.123270440251574</v>
       </c>
       <c r="J6">
-        <f>E6/I6</f>
-        <v>0.48193087755722031</v>
+        <f>F6/I6</f>
+        <v>0.66360913738269611</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4404,31 +4404,35 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>212819</v>
+        <v>228261</v>
       </c>
       <c r="D7">
         <v>1216</v>
       </c>
       <c r="E7">
-        <f>(C7/D7)-E19</f>
-        <v>53.834143518518516</v>
+        <f t="shared" si="3"/>
+        <v>121.18148148148148</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>66.533156676413256</v>
       </c>
       <c r="G7">
-        <v>64493</v>
+        <v>65399</v>
       </c>
       <c r="H7">
         <v>795</v>
       </c>
       <c r="I7">
-        <f>G7/H7</f>
-        <v>81.123270440251574</v>
+        <f t="shared" si="1"/>
+        <v>82.262893081761007</v>
       </c>
       <c r="J7">
-        <f>E7/I7</f>
-        <v>0.66360913738269611</v>
+        <f>F7/I7</f>
+        <v>0.80878697774810837</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4436,31 +4440,35 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>228261</v>
+        <v>206446</v>
       </c>
       <c r="D8">
-        <v>1216</v>
+        <v>1064</v>
       </c>
       <c r="E8">
-        <f>(C8/D8)-E19</f>
-        <v>66.533156676413256</v>
+        <f t="shared" si="3"/>
+        <v>121.18148148148148</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>72.846714007240308</v>
       </c>
       <c r="G8">
-        <v>65399</v>
+        <v>62756</v>
       </c>
       <c r="H8">
         <v>795</v>
       </c>
       <c r="I8">
-        <f>G8/H8</f>
-        <v>82.262893081761007</v>
+        <f t="shared" si="1"/>
+        <v>78.93836477987422</v>
       </c>
       <c r="J8">
-        <f>E8/I8</f>
-        <v>0.80878697774810837</v>
+        <f>F8/I8</f>
+        <v>0.92283028930709476</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4468,63 +4476,71 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>206446</v>
+        <v>171197</v>
       </c>
       <c r="D9">
         <v>1064</v>
       </c>
       <c r="E9">
-        <f>(C9/D9)-E19</f>
-        <v>72.846714007240308</v>
+        <f t="shared" si="3"/>
+        <v>121.18148148148148</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>39.717954608744094</v>
       </c>
       <c r="G9">
-        <v>62756</v>
+        <v>69560</v>
       </c>
       <c r="H9">
         <v>795</v>
       </c>
       <c r="I9">
-        <f>G9/H9</f>
-        <v>78.93836477987422</v>
+        <f t="shared" si="1"/>
+        <v>87.496855345911953</v>
       </c>
       <c r="J9">
-        <f>E9/I9</f>
-        <v>0.92283028930709476</v>
+        <f>F9/I9</f>
+        <v>0.45393579519769339</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>171197</v>
+        <v>207699</v>
       </c>
       <c r="D10">
         <v>1064</v>
       </c>
       <c r="E10">
-        <f>(C10/D10)-E19</f>
-        <v>39.717954608744094</v>
+        <f t="shared" ref="E10:E15" si="4">135124/1026</f>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>63.50602199944305</v>
       </c>
       <c r="G10">
-        <v>69560</v>
+        <v>60308</v>
       </c>
       <c r="H10">
         <v>795</v>
       </c>
       <c r="I10">
-        <f>G10/H10</f>
-        <v>87.496855345911953</v>
+        <f t="shared" si="1"/>
+        <v>75.859119496855342</v>
       </c>
       <c r="J10">
-        <f>E10/I10</f>
-        <v>0.45393579519769339</v>
+        <f>F10/I10</f>
+        <v>0.83715738359019076</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4532,31 +4548,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>207699</v>
+        <v>212938</v>
       </c>
       <c r="D11">
         <v>1064</v>
       </c>
       <c r="E11">
-        <f>(C11/D11)-E18</f>
-        <v>63.50602199944305</v>
+        <f t="shared" si="4"/>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>68.429894179894177</v>
       </c>
       <c r="G11">
-        <v>60308</v>
+        <v>75535</v>
       </c>
       <c r="H11">
         <v>795</v>
       </c>
       <c r="I11">
-        <f>G11/H11</f>
-        <v>75.859119496855342</v>
+        <f t="shared" si="1"/>
+        <v>95.012578616352201</v>
       </c>
       <c r="J11">
-        <f>E11/I11</f>
-        <v>0.83715738359019076</v>
+        <f>F11/I11</f>
+        <v>0.72021931386795357</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4564,31 +4584,35 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>212938</v>
+        <v>185907</v>
       </c>
       <c r="D12">
         <v>1064</v>
       </c>
       <c r="E12">
-        <f>(C12/D12)-E18</f>
-        <v>68.429894179894177</v>
+        <f t="shared" si="4"/>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>43.024818991924263</v>
       </c>
       <c r="G12">
-        <v>75535</v>
+        <v>62709</v>
       </c>
       <c r="H12">
         <v>795</v>
       </c>
       <c r="I12">
-        <f>G12/H12</f>
-        <v>95.012578616352201</v>
+        <f t="shared" si="1"/>
+        <v>78.879245283018861</v>
       </c>
       <c r="J12">
-        <f>E12/I12</f>
-        <v>0.72021931386795357</v>
+        <f>F12/I12</f>
+        <v>0.5454517070688385</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4596,31 +4620,35 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>185907</v>
+        <v>198909</v>
       </c>
       <c r="D13">
-        <v>1064</v>
+        <v>1026</v>
       </c>
       <c r="E13">
-        <f>(C13/D13)-E18</f>
-        <v>43.024818991924263</v>
+        <f t="shared" si="4"/>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>62.168615984405477</v>
       </c>
       <c r="G13">
-        <v>62709</v>
+        <v>78427</v>
       </c>
       <c r="H13">
         <v>795</v>
       </c>
       <c r="I13">
-        <f>G13/H13</f>
-        <v>78.879245283018861</v>
+        <f t="shared" si="1"/>
+        <v>98.650314465408812</v>
       </c>
       <c r="J13">
-        <f>E13/I13</f>
-        <v>0.5454517070688385</v>
+        <f>F13/I13</f>
+        <v>0.6301917669629381</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4628,31 +4656,35 @@
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>198909</v>
+        <v>231146</v>
       </c>
       <c r="D14">
         <v>1026</v>
       </c>
       <c r="E14">
-        <f>(C14/D14)-E18</f>
-        <v>62.168615984405477</v>
+        <f t="shared" si="4"/>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>93.588693957115026</v>
       </c>
       <c r="G14">
-        <v>78427</v>
+        <v>60157</v>
       </c>
       <c r="H14">
         <v>795</v>
       </c>
       <c r="I14">
-        <f>G14/H14</f>
-        <v>98.650314465408812</v>
+        <f t="shared" si="1"/>
+        <v>75.669182389937106</v>
       </c>
       <c r="J14">
-        <f>E14/I14</f>
-        <v>0.6301917669629381</v>
+        <f>F14/I14</f>
+        <v>1.2368138653175267</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4660,90 +4692,35 @@
         <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>231146</v>
+        <v>296829</v>
       </c>
       <c r="D15">
-        <v>1026</v>
+        <v>1311</v>
       </c>
       <c r="E15">
-        <f>(C15/D15)-E18</f>
-        <v>93.588693957115026</v>
+        <f t="shared" si="4"/>
+        <v>131.69980506822611</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>94.714382574794485</v>
       </c>
       <c r="G15">
-        <v>60157</v>
+        <v>40505</v>
       </c>
       <c r="H15">
         <v>795</v>
       </c>
       <c r="I15">
-        <f>G15/H15</f>
-        <v>75.669182389937106</v>
+        <f t="shared" si="1"/>
+        <v>50.949685534591197</v>
       </c>
       <c r="J15">
-        <f>E15/I15</f>
-        <v>1.2368138653175267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>296829</v>
-      </c>
-      <c r="D16">
-        <v>1311</v>
-      </c>
-      <c r="E16">
-        <f>(C16/D16)-E18</f>
-        <v>94.714382574794485</v>
-      </c>
-      <c r="G16">
-        <v>40505</v>
-      </c>
-      <c r="H16">
-        <v>795</v>
-      </c>
-      <c r="I16">
-        <f>G16/H16</f>
-        <v>50.949685534591197</v>
-      </c>
-      <c r="J16">
-        <f>E16/I16</f>
+        <f>F15/I15</f>
         <v>1.8589787469932506</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <f>135124/1026</f>
-        <v>131.69980506822611</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <f>130876/1080</f>
-        <v>121.18148148148148</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <f>104541/1080</f>
-        <v>96.797222222222217</v>
       </c>
     </row>
   </sheetData>
